--- a/MainTop/30.10.2025 Таня ВБ 2 месяца/spros_print_sorted.xlsx
+++ b/MainTop/30.10.2025 Таня ВБ 2 месяца/spros_print_sorted.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\30.10.2025 Таня ВБ 2 месяца\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599ADA32-1ABC-4D67-A5A3-4058C0B2D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EAF06-1093-424F-B6EB-1FAC985B57C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="262">
   <si>
     <t>Артикул</t>
   </si>
@@ -800,13 +800,19 @@
   </si>
   <si>
     <t>6_а5_настройки_60</t>
+  </si>
+  <si>
+    <t>на 4 города</t>
+  </si>
+  <si>
+    <t>количество</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +824,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -891,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -902,6 +917,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1204,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1234,7 @@
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,8 +1247,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1244,8 +1267,12 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="9">
+        <f>B2/4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1258,8 +1285,12 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E66" si="0">B3/4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1272,8 +1303,12 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1286,8 +1321,12 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1300,8 +1339,12 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1357,12 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1328,8 +1375,12 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1342,8 +1393,12 @@
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1356,8 +1411,12 @@
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1370,8 +1429,12 @@
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1384,8 +1447,12 @@
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1398,8 +1465,12 @@
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1412,8 +1483,12 @@
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1426,8 +1501,12 @@
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1440,8 +1519,12 @@
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1454,8 +1537,12 @@
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1468,8 +1555,12 @@
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1482,8 +1573,12 @@
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1496,8 +1591,12 @@
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -1510,8 +1609,12 @@
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1524,8 +1627,12 @@
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1538,8 +1645,12 @@
       <c r="D23" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1552,8 +1663,12 @@
       <c r="D24" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1566,8 +1681,12 @@
       <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1580,8 +1699,12 @@
       <c r="D26" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1594,8 +1717,12 @@
       <c r="D27" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1735,12 @@
       <c r="D28" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -1622,8 +1753,12 @@
       <c r="D29" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -1636,8 +1771,12 @@
       <c r="D30" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -1650,8 +1789,12 @@
       <c r="D31" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -1664,8 +1807,12 @@
       <c r="D32" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1678,8 +1825,12 @@
       <c r="D33" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -1692,8 +1843,12 @@
       <c r="D34" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -1706,8 +1861,12 @@
       <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -1720,8 +1879,12 @@
       <c r="D36" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -1734,8 +1897,12 @@
       <c r="D37" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -1748,8 +1915,12 @@
       <c r="D38" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -1762,8 +1933,12 @@
       <c r="D39" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -1776,8 +1951,12 @@
       <c r="D40" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -1790,8 +1969,12 @@
       <c r="D41" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -1804,8 +1987,12 @@
       <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -1818,8 +2005,12 @@
       <c r="D43" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1832,8 +2023,12 @@
       <c r="D44" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -1846,8 +2041,12 @@
       <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -1860,8 +2059,12 @@
       <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
@@ -1874,8 +2077,12 @@
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
@@ -1888,8 +2095,12 @@
       <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
@@ -1902,8 +2113,12 @@
       <c r="D49" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -1916,8 +2131,12 @@
       <c r="D50" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
@@ -1930,8 +2149,12 @@
       <c r="D51" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>56</v>
       </c>
@@ -1944,8 +2167,12 @@
       <c r="D52" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
@@ -1958,8 +2185,12 @@
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
@@ -1972,8 +2203,12 @@
       <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>59</v>
       </c>
@@ -1986,8 +2221,12 @@
       <c r="D55" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>60</v>
       </c>
@@ -2000,8 +2239,12 @@
       <c r="D56" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>61</v>
       </c>
@@ -2014,8 +2257,12 @@
       <c r="D57" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>62</v>
       </c>
@@ -2028,8 +2275,12 @@
       <c r="D58" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>63</v>
       </c>
@@ -2042,8 +2293,12 @@
       <c r="D59" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>64</v>
       </c>
@@ -2056,8 +2311,12 @@
       <c r="D60" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>65</v>
       </c>
@@ -2070,8 +2329,12 @@
       <c r="D61" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>66</v>
       </c>
@@ -2084,8 +2347,12 @@
       <c r="D62" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>67</v>
       </c>
@@ -2098,8 +2365,12 @@
       <c r="D63" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>68</v>
       </c>
@@ -2112,8 +2383,12 @@
       <c r="D64" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>69</v>
       </c>
@@ -2126,8 +2401,12 @@
       <c r="D65" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>70</v>
       </c>
@@ -2140,8 +2419,12 @@
       <c r="D66" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>71</v>
       </c>
@@ -2154,8 +2437,12 @@
       <c r="D67" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="9">
+        <f t="shared" ref="E67:E130" si="1">B67/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>72</v>
       </c>
@@ -2168,8 +2455,12 @@
       <c r="D68" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>73</v>
       </c>
@@ -2182,8 +2473,12 @@
       <c r="D69" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>74</v>
       </c>
@@ -2196,8 +2491,12 @@
       <c r="D70" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>75</v>
       </c>
@@ -2210,8 +2509,12 @@
       <c r="D71" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
@@ -2224,8 +2527,12 @@
       <c r="D72" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>77</v>
       </c>
@@ -2238,8 +2545,12 @@
       <c r="D73" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>78</v>
       </c>
@@ -2252,8 +2563,12 @@
       <c r="D74" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>79</v>
       </c>
@@ -2266,8 +2581,12 @@
       <c r="D75" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>80</v>
       </c>
@@ -2280,8 +2599,12 @@
       <c r="D76" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>81</v>
       </c>
@@ -2294,8 +2617,12 @@
       <c r="D77" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>82</v>
       </c>
@@ -2308,8 +2635,12 @@
       <c r="D78" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
@@ -2322,8 +2653,12 @@
       <c r="D79" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>84</v>
       </c>
@@ -2336,8 +2671,12 @@
       <c r="D80" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>85</v>
       </c>
@@ -2350,8 +2689,12 @@
       <c r="D81" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>86</v>
       </c>
@@ -2364,8 +2707,12 @@
       <c r="D82" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>87</v>
       </c>
@@ -2378,8 +2725,12 @@
       <c r="D83" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>88</v>
       </c>
@@ -2392,8 +2743,12 @@
       <c r="D84" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>89</v>
       </c>
@@ -2406,8 +2761,12 @@
       <c r="D85" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
@@ -2420,8 +2779,12 @@
       <c r="D86" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>91</v>
       </c>
@@ -2434,8 +2797,12 @@
       <c r="D87" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>92</v>
       </c>
@@ -2448,8 +2815,12 @@
       <c r="D88" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>93</v>
       </c>
@@ -2462,8 +2833,12 @@
       <c r="D89" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>94</v>
       </c>
@@ -2476,8 +2851,12 @@
       <c r="D90" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>95</v>
       </c>
@@ -2490,8 +2869,12 @@
       <c r="D91" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>96</v>
       </c>
@@ -2504,8 +2887,12 @@
       <c r="D92" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>97</v>
       </c>
@@ -2518,8 +2905,12 @@
       <c r="D93" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>98</v>
       </c>
@@ -2532,8 +2923,12 @@
       <c r="D94" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>99</v>
       </c>
@@ -2546,8 +2941,12 @@
       <c r="D95" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>100</v>
       </c>
@@ -2560,8 +2959,12 @@
       <c r="D96" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>101</v>
       </c>
@@ -2574,8 +2977,12 @@
       <c r="D97" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>102</v>
       </c>
@@ -2588,8 +2995,12 @@
       <c r="D98" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>103</v>
       </c>
@@ -2602,8 +3013,12 @@
       <c r="D99" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>104</v>
       </c>
@@ -2616,8 +3031,12 @@
       <c r="D100" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>105</v>
       </c>
@@ -2630,8 +3049,12 @@
       <c r="D101" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>106</v>
       </c>
@@ -2644,8 +3067,12 @@
       <c r="D102" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>107</v>
       </c>
@@ -2658,8 +3085,12 @@
       <c r="D103" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>108</v>
       </c>
@@ -2672,8 +3103,12 @@
       <c r="D104" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>109</v>
       </c>
@@ -2686,8 +3121,12 @@
       <c r="D105" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>110</v>
       </c>
@@ -2700,8 +3139,12 @@
       <c r="D106" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>111</v>
       </c>
@@ -2714,8 +3157,12 @@
       <c r="D107" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -2728,8 +3175,12 @@
       <c r="D108" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>113</v>
       </c>
@@ -2742,8 +3193,12 @@
       <c r="D109" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>114</v>
       </c>
@@ -2756,8 +3211,12 @@
       <c r="D110" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>115</v>
       </c>
@@ -2770,8 +3229,12 @@
       <c r="D111" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>116</v>
       </c>
@@ -2784,8 +3247,12 @@
       <c r="D112" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>117</v>
       </c>
@@ -2798,8 +3265,12 @@
       <c r="D113" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>118</v>
       </c>
@@ -2812,8 +3283,12 @@
       <c r="D114" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>119</v>
       </c>
@@ -2826,8 +3301,12 @@
       <c r="D115" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>120</v>
       </c>
@@ -2840,8 +3319,12 @@
       <c r="D116" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>121</v>
       </c>
@@ -2854,8 +3337,12 @@
       <c r="D117" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>122</v>
       </c>
@@ -2868,8 +3355,12 @@
       <c r="D118" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>123</v>
       </c>
@@ -2882,8 +3373,12 @@
       <c r="D119" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>124</v>
       </c>
@@ -2896,8 +3391,12 @@
       <c r="D120" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>125</v>
       </c>
@@ -2910,8 +3409,12 @@
       <c r="D121" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>126</v>
       </c>
@@ -2924,8 +3427,12 @@
       <c r="D122" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>127</v>
       </c>
@@ -2938,8 +3445,12 @@
       <c r="D123" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>128</v>
       </c>
@@ -2952,8 +3463,12 @@
       <c r="D124" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>129</v>
       </c>
@@ -2966,8 +3481,12 @@
       <c r="D125" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>130</v>
       </c>
@@ -2980,8 +3499,12 @@
       <c r="D126" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>131</v>
       </c>
@@ -2994,8 +3517,12 @@
       <c r="D127" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>132</v>
       </c>
@@ -3008,8 +3535,12 @@
       <c r="D128" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>133</v>
       </c>
@@ -3022,8 +3553,12 @@
       <c r="D129" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>134</v>
       </c>
@@ -3036,8 +3571,12 @@
       <c r="D130" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>135</v>
       </c>
@@ -3050,8 +3589,12 @@
       <c r="D131" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="9">
+        <f t="shared" ref="E131:E194" si="2">B131/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>136</v>
       </c>
@@ -3064,8 +3607,12 @@
       <c r="D132" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>137</v>
       </c>
@@ -3078,8 +3625,12 @@
       <c r="D133" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>138</v>
       </c>
@@ -3092,8 +3643,12 @@
       <c r="D134" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>139</v>
       </c>
@@ -3106,8 +3661,12 @@
       <c r="D135" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>140</v>
       </c>
@@ -3120,8 +3679,12 @@
       <c r="D136" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>141</v>
       </c>
@@ -3134,8 +3697,12 @@
       <c r="D137" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>142</v>
       </c>
@@ -3148,8 +3715,12 @@
       <c r="D138" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>143</v>
       </c>
@@ -3162,8 +3733,12 @@
       <c r="D139" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>144</v>
       </c>
@@ -3176,8 +3751,12 @@
       <c r="D140" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>145</v>
       </c>
@@ -3190,8 +3769,12 @@
       <c r="D141" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>146</v>
       </c>
@@ -3204,8 +3787,12 @@
       <c r="D142" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>147</v>
       </c>
@@ -3218,8 +3805,12 @@
       <c r="D143" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>148</v>
       </c>
@@ -3232,8 +3823,12 @@
       <c r="D144" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>149</v>
       </c>
@@ -3246,8 +3841,12 @@
       <c r="D145" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>150</v>
       </c>
@@ -3260,8 +3859,12 @@
       <c r="D146" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>151</v>
       </c>
@@ -3274,8 +3877,12 @@
       <c r="D147" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>152</v>
       </c>
@@ -3288,8 +3895,12 @@
       <c r="D148" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>153</v>
       </c>
@@ -3302,8 +3913,12 @@
       <c r="D149" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>154</v>
       </c>
@@ -3316,8 +3931,12 @@
       <c r="D150" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>155</v>
       </c>
@@ -3330,8 +3949,12 @@
       <c r="D151" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>156</v>
       </c>
@@ -3344,8 +3967,12 @@
       <c r="D152" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>157</v>
       </c>
@@ -3358,8 +3985,12 @@
       <c r="D153" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>158</v>
       </c>
@@ -3372,8 +4003,12 @@
       <c r="D154" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>159</v>
       </c>
@@ -3386,8 +4021,12 @@
       <c r="D155" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>160</v>
       </c>
@@ -3400,8 +4039,12 @@
       <c r="D156" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>161</v>
       </c>
@@ -3414,8 +4057,12 @@
       <c r="D157" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>162</v>
       </c>
@@ -3428,8 +4075,12 @@
       <c r="D158" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>163</v>
       </c>
@@ -3442,8 +4093,12 @@
       <c r="D159" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>164</v>
       </c>
@@ -3456,8 +4111,12 @@
       <c r="D160" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>165</v>
       </c>
@@ -3470,8 +4129,12 @@
       <c r="D161" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>166</v>
       </c>
@@ -3484,8 +4147,12 @@
       <c r="D162" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>167</v>
       </c>
@@ -3498,8 +4165,12 @@
       <c r="D163" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>168</v>
       </c>
@@ -3512,8 +4183,12 @@
       <c r="D164" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>169</v>
       </c>
@@ -3526,8 +4201,12 @@
       <c r="D165" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>170</v>
       </c>
@@ -3540,8 +4219,12 @@
       <c r="D166" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>171</v>
       </c>
@@ -3554,8 +4237,12 @@
       <c r="D167" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>172</v>
       </c>
@@ -3568,8 +4255,12 @@
       <c r="D168" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>173</v>
       </c>
@@ -3582,8 +4273,12 @@
       <c r="D169" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>175</v>
       </c>
@@ -3596,8 +4291,12 @@
       <c r="D170" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>176</v>
       </c>
@@ -3610,8 +4309,12 @@
       <c r="D171" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>177</v>
       </c>
@@ -3624,8 +4327,12 @@
       <c r="D172" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>178</v>
       </c>
@@ -3638,8 +4345,12 @@
       <c r="D173" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>179</v>
       </c>
@@ -3652,8 +4363,12 @@
       <c r="D174" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>180</v>
       </c>
@@ -3666,8 +4381,12 @@
       <c r="D175" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>181</v>
       </c>
@@ -3680,8 +4399,12 @@
       <c r="D176" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>182</v>
       </c>
@@ -3694,8 +4417,12 @@
       <c r="D177" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>183</v>
       </c>
@@ -3708,8 +4435,12 @@
       <c r="D178" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>184</v>
       </c>
@@ -3722,8 +4453,12 @@
       <c r="D179" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>185</v>
       </c>
@@ -3736,8 +4471,12 @@
       <c r="D180" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>186</v>
       </c>
@@ -3750,8 +4489,12 @@
       <c r="D181" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>187</v>
       </c>
@@ -3764,8 +4507,12 @@
       <c r="D182" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>188</v>
       </c>
@@ -3778,8 +4525,12 @@
       <c r="D183" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>189</v>
       </c>
@@ -3792,8 +4543,12 @@
       <c r="D184" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>190</v>
       </c>
@@ -3806,8 +4561,12 @@
       <c r="D185" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>191</v>
       </c>
@@ -3820,8 +4579,12 @@
       <c r="D186" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>192</v>
       </c>
@@ -3834,8 +4597,12 @@
       <c r="D187" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>193</v>
       </c>
@@ -3848,8 +4615,12 @@
       <c r="D188" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>194</v>
       </c>
@@ -3862,8 +4633,12 @@
       <c r="D189" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>195</v>
       </c>
@@ -3876,8 +4651,12 @@
       <c r="D190" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>196</v>
       </c>
@@ -3890,8 +4669,12 @@
       <c r="D191" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>197</v>
       </c>
@@ -3904,8 +4687,12 @@
       <c r="D192" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>198</v>
       </c>
@@ -3918,8 +4705,12 @@
       <c r="D193" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>199</v>
       </c>
@@ -3932,8 +4723,12 @@
       <c r="D194" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>200</v>
       </c>
@@ -3946,8 +4741,12 @@
       <c r="D195" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="9">
+        <f t="shared" ref="E195:E252" si="3">B195/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>201</v>
       </c>
@@ -3960,8 +4759,12 @@
       <c r="D196" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>202</v>
       </c>
@@ -3974,8 +4777,12 @@
       <c r="D197" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>203</v>
       </c>
@@ -3988,8 +4795,12 @@
       <c r="D198" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>204</v>
       </c>
@@ -4002,8 +4813,12 @@
       <c r="D199" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>205</v>
       </c>
@@ -4016,8 +4831,12 @@
       <c r="D200" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>206</v>
       </c>
@@ -4030,8 +4849,12 @@
       <c r="D201" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>207</v>
       </c>
@@ -4044,8 +4867,12 @@
       <c r="D202" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>208</v>
       </c>
@@ -4058,8 +4885,12 @@
       <c r="D203" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>209</v>
       </c>
@@ -4072,8 +4903,12 @@
       <c r="D204" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>210</v>
       </c>
@@ -4086,8 +4921,12 @@
       <c r="D205" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>211</v>
       </c>
@@ -4100,8 +4939,12 @@
       <c r="D206" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>212</v>
       </c>
@@ -4114,8 +4957,12 @@
       <c r="D207" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>213</v>
       </c>
@@ -4128,8 +4975,12 @@
       <c r="D208" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>214</v>
       </c>
@@ -4142,8 +4993,12 @@
       <c r="D209" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>215</v>
       </c>
@@ -4156,8 +5011,12 @@
       <c r="D210" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>216</v>
       </c>
@@ -4170,8 +5029,12 @@
       <c r="D211" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>217</v>
       </c>
@@ -4184,8 +5047,12 @@
       <c r="D212" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>218</v>
       </c>
@@ -4198,8 +5065,12 @@
       <c r="D213" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>219</v>
       </c>
@@ -4212,8 +5083,12 @@
       <c r="D214" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>220</v>
       </c>
@@ -4226,8 +5101,12 @@
       <c r="D215" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>221</v>
       </c>
@@ -4240,8 +5119,12 @@
       <c r="D216" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>222</v>
       </c>
@@ -4254,8 +5137,12 @@
       <c r="D217" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>223</v>
       </c>
@@ -4268,8 +5155,12 @@
       <c r="D218" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>224</v>
       </c>
@@ -4282,8 +5173,12 @@
       <c r="D219" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>225</v>
       </c>
@@ -4296,8 +5191,12 @@
       <c r="D220" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>226</v>
       </c>
@@ -4310,8 +5209,12 @@
       <c r="D221" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>227</v>
       </c>
@@ -4324,8 +5227,12 @@
       <c r="D222" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>228</v>
       </c>
@@ -4338,8 +5245,12 @@
       <c r="D223" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>229</v>
       </c>
@@ -4352,8 +5263,12 @@
       <c r="D224" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>230</v>
       </c>
@@ -4366,8 +5281,12 @@
       <c r="D225" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>231</v>
       </c>
@@ -4380,8 +5299,12 @@
       <c r="D226" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>232</v>
       </c>
@@ -4394,8 +5317,12 @@
       <c r="D227" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>233</v>
       </c>
@@ -4408,8 +5335,12 @@
       <c r="D228" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>234</v>
       </c>
@@ -4422,8 +5353,12 @@
       <c r="D229" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>235</v>
       </c>
@@ -4436,8 +5371,12 @@
       <c r="D230" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>236</v>
       </c>
@@ -4450,8 +5389,12 @@
       <c r="D231" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>237</v>
       </c>
@@ -4464,8 +5407,12 @@
       <c r="D232" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>238</v>
       </c>
@@ -4478,8 +5425,12 @@
       <c r="D233" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>239</v>
       </c>
@@ -4492,8 +5443,12 @@
       <c r="D234" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>240</v>
       </c>
@@ -4506,8 +5461,12 @@
       <c r="D235" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>241</v>
       </c>
@@ -4520,8 +5479,12 @@
       <c r="D236" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>242</v>
       </c>
@@ -4534,8 +5497,12 @@
       <c r="D237" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>243</v>
       </c>
@@ -4548,8 +5515,12 @@
       <c r="D238" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>244</v>
       </c>
@@ -4562,8 +5533,12 @@
       <c r="D239" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>245</v>
       </c>
@@ -4576,8 +5551,12 @@
       <c r="D240" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>246</v>
       </c>
@@ -4590,8 +5569,12 @@
       <c r="D241" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>247</v>
       </c>
@@ -4604,8 +5587,12 @@
       <c r="D242" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>248</v>
       </c>
@@ -4618,8 +5605,12 @@
       <c r="D243" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>250</v>
       </c>
@@ -4632,8 +5623,12 @@
       <c r="D244" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>251</v>
       </c>
@@ -4646,8 +5641,12 @@
       <c r="D245" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>252</v>
       </c>
@@ -4660,8 +5659,12 @@
       <c r="D246" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>253</v>
       </c>
@@ -4674,8 +5677,12 @@
       <c r="D247" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>254</v>
       </c>
@@ -4688,8 +5695,12 @@
       <c r="D248" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>255</v>
       </c>
@@ -4702,8 +5713,12 @@
       <c r="D249" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>256</v>
       </c>
@@ -4716,8 +5731,12 @@
       <c r="D250" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>257</v>
       </c>
@@ -4730,8 +5749,12 @@
       <c r="D251" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>258</v>
       </c>
@@ -4744,8 +5767,13 @@
       <c r="D252" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E252" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>